--- a/PointlessWaymarksTests/IronwoodTestContent/HermitsRestDuplicateSlugImport.xlsx
+++ b/PointlessWaymarksTests/IronwoodTestContent/HermitsRestDuplicateSlugImport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PointlessWaymarksCms05\PointlessWaymarksTests\IronwoodTestContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C1708C8-B0C5-437D-B55F-1B26AB0E89E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C46868-AC5A-4AF9-BF4F-84C85FA4690B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="25600" windowHeight="13760" xr2:uid="{5E1D730E-1DB5-45D0-A470-1324E52105D1}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="25600" windowHeight="13760" xr2:uid="{5E1D730E-1DB5-45D0-A470-1324E52105D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,6 +249,14 @@
   </cellStyles>
   <dxfs count="45">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -294,13 +302,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -766,24 +767,24 @@
     <tableColumn id="27" xr3:uid="{0ECE29B5-19F4-4D51-9FAA-3A176CA1A64D}" name="Latitude" dataDxfId="10">
       <calculatedColumnFormula>J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{D3898066-23DF-4D3A-9665-A86E82CDD1D9}" name="Longitude" dataDxfId="9">
-      <calculatedColumnFormula>J2</calculatedColumnFormula>
+    <tableColumn id="28" xr3:uid="{D3898066-23DF-4D3A-9665-A86E82CDD1D9}" name="Longitude" dataDxfId="0">
+      <calculatedColumnFormula>K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{4DE72029-081A-4628-BAF9-D3A4FC308D02}" name="Elevation" dataDxfId="8">
+    <tableColumn id="29" xr3:uid="{4DE72029-081A-4628-BAF9-D3A4FC308D02}" name="Elevation" dataDxfId="9">
       <calculatedColumnFormula>Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{0BFFFD5D-4C76-4BEC-B058-CC22575B98EA}" name="Folder" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{B43F3D3D-71CD-4253-A49F-F33A7CD4F822}" name="ShowInMainSiteFeed" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{BEC42B69-8172-4341-9A24-259DF1B1D05B}" name="Summary" dataDxfId="5">
+    <tableColumn id="30" xr3:uid="{0BFFFD5D-4C76-4BEC-B058-CC22575B98EA}" name="Folder" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{B43F3D3D-71CD-4253-A49F-F33A7CD4F822}" name="ShowInMainSiteFeed" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{BEC42B69-8172-4341-9A24-259DF1B1D05B}" name="Summary" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(B2,", ",F2," County, ",D2,"."," USGS 7.5' Map: ", R2,".")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{FB5BB3FD-9E79-4F32-8CE1-11C4EFB10045}" name="Tags" dataDxfId="4">
+    <tableColumn id="33" xr3:uid="{FB5BB3FD-9E79-4F32-8CE1-11C4EFB10045}" name="Tags" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.CONCAT("grand canyon, ", B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{41405A20-F0EA-4911-9E87-FAB0D35A9A5D}" name="CreatedBy" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{2DC1AAC9-A214-4FC2-8526-1AFC689A7C3A}" name="CreatedOn" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{EE4BA557-6ADC-4E44-AFB8-F220264A2D11}" name="UpdateContentFormat" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{66CDC430-12FC-4138-89AF-2F338B1BA45B}" name="PointDetail 1" dataDxfId="0">
+    <tableColumn id="34" xr3:uid="{41405A20-F0EA-4911-9E87-FAB0D35A9A5D}" name="CreatedBy" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{2DC1AAC9-A214-4FC2-8526-1AFC689A7C3A}" name="CreatedOn" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{EE4BA557-6ADC-4E44-AFB8-F220264A2D11}" name="UpdateContentFormat" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{66CDC430-12FC-4138-89AF-2F338B1BA45B}" name="PointDetail 1" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C2,""",""Notes"":""GNIS Feature ID:",A2,", ", F2," County, ",D2,". USGS 7.5' Quad: ",R2,". GNIS Elevation: ", Q2,"'.","""}")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1090,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BFC7E8-3B4B-45EF-A8DF-D7CF3BE7F1F0}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,8 +1314,8 @@
         <v>36.061926999999997</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2" si="3">J2</f>
-        <v>36.061926999999997</v>
+        <f t="shared" ref="AB2:AB3" si="3">K2</f>
+        <v>-112.21100490000001</v>
       </c>
       <c r="AC2">
         <f t="shared" ref="AC2" si="4">Q2</f>
@@ -1416,11 +1417,11 @@
         <v>36.062222200000001</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3" si="11">J3</f>
-        <v>36.062222200000001</v>
+        <f t="shared" si="3"/>
+        <v>-112.2111111</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3" si="12">Q3</f>
+        <f t="shared" ref="AC3" si="11">Q3</f>
         <v>6657</v>
       </c>
       <c r="AD3" t="s">
@@ -1430,11 +1431,11 @@
         <v>0</v>
       </c>
       <c r="AF3" t="str">
-        <f t="shared" ref="AF3" si="13">CONCATENATE(B3,", ",F3," County, ",D3,"."," USGS 7.5' Map: ", R3,".")</f>
+        <f t="shared" ref="AF3" si="12">CONCATENATE(B3,", ",F3," County, ",D3,"."," USGS 7.5' Map: ", R3,".")</f>
         <v>Hermits Rest, Coconino County, AZ. USGS 7.5' Map: Grand Canyon.</v>
       </c>
       <c r="AG3" t="str">
-        <f t="shared" ref="AG3" si="14">_xlfn.CONCAT("grand canyon, ", B3)</f>
+        <f t="shared" ref="AG3" si="13">_xlfn.CONCAT("grand canyon, ", B3)</f>
         <v>grand canyon, Hermits Rest</v>
       </c>
       <c r="AH3" t="s">
@@ -1447,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="AK3" s="2" t="str">
-        <f t="shared" ref="AK3" si="15">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C3,""",""Notes"":""GNIS Feature ID:",A3,", ", F3," County, ",D3,". USGS 7.5' Quad: ",R3,". GNIS Elevation: ", Q3,"'.","""}")</f>
+        <f t="shared" ref="AK3" si="14">_xlfn.CONCAT("ContentId:||Type:Feature||Data:{""DataTypeIdentifier"":""Feature"",""Type"":""",C3,""",""Notes"":""GNIS Feature ID:",A3,", ", F3," County, ",D3,". USGS 7.5' Quad: ",R3,". GNIS Elevation: ", Q3,"'.","""}")</f>
         <v>ContentId:||Type:Feature||Data:{"DataTypeIdentifier":"Feature","Type":"Building","Notes":"GNIS Feature ID:2500077, Coconino County, AZ. USGS 7.5' Quad: Grand Canyon. GNIS Elevation: 6657'."}</v>
       </c>
     </row>
